--- a/output/endemo2_demand_projections.xlsx
+++ b/output/endemo2_demand_projections.xlsx
@@ -5507,15 +5507,27 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.66</v>
+      </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
       <c r="I19" t="n">
         <v>100</v>
       </c>

--- a/output/endemo2_demand_projections.xlsx
+++ b/output/endemo2_demand_projections.xlsx
@@ -4549,19 +4549,21 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>2.3804361</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.5632692</v>
+        <v>6.7645984</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.07647080000000001</v>
+        <v>0.9183789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1206734</v>
+        <v>1.4492306</v>
       </c>
       <c r="G2" t="n">
-        <v>0.366125</v>
+        <v>4.396989</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4573,22 +4575,24 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.3329083</v>
+      </c>
       <c r="C3" t="n">
-        <v>-0.43945</v>
+        <v>1.8265926</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>-0.0596608</v>
+        <v>0.2479828</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0941467</v>
+        <v>0.3913246</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2856425</v>
+        <v>1.1872852</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4597,19 +4601,21 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>2.0434377</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.4562786</v>
+        <v>6.4617311</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.0619455</v>
+        <v>0.8772608</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09775200000000001</v>
+        <v>1.384345</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2965811</v>
+        <v>4.2001252</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -4622,22 +4628,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4122696</v>
+        <v>0.3784892</v>
       </c>
       <c r="C5" t="n">
-        <v>1.028481</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5453425</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.1396292</v>
+        <v>0.07403709999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2203392</v>
+        <v>0.1168328</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6685126</v>
+        <v>0.3544727</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -4649,19 +4653,21 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>23.4268672</v>
+      </c>
       <c r="C6" t="n">
-        <v>8.5685974</v>
+        <v>45.3082845</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>1.1632943</v>
+        <v>6.1511664</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8357148</v>
+        <v>9.706733099999999</v>
       </c>
       <c r="G6" t="n">
-        <v>5.5695883</v>
+        <v>29.4503849</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -4676,12 +4682,22 @@
       <c r="B7" t="n">
         <v>0.0663697</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.0195041</v>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.0026479</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0041785</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0126777</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4692,12 +4708,22 @@
       <c r="B8" t="n">
         <v>0.5333476</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>0.6344338</v>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.08613229999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1359195</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.412382</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4708,12 +4734,22 @@
       <c r="B9" t="n">
         <v>3.8584664</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>10.5076073</v>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1.4265391</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.2511234</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.8299448</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4724,12 +4760,22 @@
       <c r="B10" t="n">
         <v>10.5328449</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>18.1152198</v>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>2.4593677</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.8809592</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.7748929</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4737,22 +4783,24 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0.2714396</v>
+      </c>
       <c r="C11" t="n">
-        <v>-0.0270378</v>
+        <v>0.2435884</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.0036707</v>
+        <v>0.0330702</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0057925</v>
+        <v>0.0521858</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0175746</v>
+        <v>0.1583325</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4761,19 +4809,21 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>9.376521199999999</v>
+      </c>
       <c r="C12" t="n">
-        <v>12.0938189</v>
+        <v>16.8232429</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1.6418872</v>
+        <v>2.2839657</v>
       </c>
       <c r="F12" t="n">
-        <v>2.5909494</v>
+        <v>3.6041693</v>
       </c>
       <c r="G12" t="n">
-        <v>7.8609823</v>
+        <v>10.9351079</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -4785,19 +4835,21 @@
           <t>Latvia</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>-0.0159034</v>
+      </c>
       <c r="C13" t="n">
-        <v>-0.0011803</v>
+        <v>-0.009961899999999999</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.0001602</v>
+        <v>-0.0013525</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0002529</v>
+        <v>-0.0021342</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0007672</v>
+        <v>-0.0064753</v>
       </c>
       <c r="H13" t="n">
         <v>-0</v>
@@ -4809,19 +4861,21 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.0361373</v>
+      </c>
       <c r="C14" t="n">
-        <v>0.0001801</v>
+        <v>0.0316076</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>2.44e-05</v>
+        <v>0.0042911</v>
       </c>
       <c r="F14" t="n">
-        <v>3.86e-05</v>
+        <v>0.0067715</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001171</v>
+        <v>0.0205449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -4833,19 +4887,21 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.6626444</v>
+      </c>
       <c r="C15" t="n">
-        <v>0.4009985</v>
+        <v>1.5051356</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.0544406</v>
+        <v>0.204341</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0859089</v>
+        <v>0.3224565</v>
       </c>
       <c r="G15" t="n">
-        <v>0.260649</v>
+        <v>0.9783381</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -4857,19 +4913,21 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>3.2045807</v>
+      </c>
       <c r="C16" t="n">
-        <v>1.8939521</v>
+        <v>5.5627593</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0.2571277</v>
+        <v>0.7552141999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4057555</v>
+        <v>1.1917516</v>
       </c>
       <c r="G16" t="n">
-        <v>1.2310688</v>
+        <v>3.6157936</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -4882,22 +4940,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.9389595</v>
+        <v>5.3627504</v>
       </c>
       <c r="C17" t="n">
-        <v>12.3211276</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
+        <v>16.8726704</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>1.6727472</v>
+        <v>2.2906761</v>
       </c>
       <c r="F17" t="n">
-        <v>2.6396474</v>
+        <v>3.6147585</v>
       </c>
       <c r="G17" t="n">
-        <v>8.0087329</v>
+        <v>10.9672357</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -4909,22 +4965,24 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2.8913937</v>
+      </c>
       <c r="C18" t="n">
-        <v>-5.3101756</v>
+        <v>6.4776482</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.7209228</v>
+        <v>0.8794218</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.1376387</v>
+        <v>1.3877551</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.4516142</v>
+        <v>4.2104713</v>
       </c>
       <c r="H18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4933,19 +4991,21 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>2.8393539</v>
+      </c>
       <c r="C19" t="n">
-        <v>1.3613156</v>
+        <v>9.8557275</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.1848156</v>
+        <v>1.3380383</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2916448</v>
+        <v>2.1114663</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8848551</v>
+        <v>6.4062229</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -4958,22 +5018,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3267598</v>
+        <v>0.6004588</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8151615</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9493163999999999</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.1106684</v>
+        <v>0.1288816</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1746382</v>
+        <v>0.2033792</v>
       </c>
       <c r="G20" t="n">
-        <v>0.529855</v>
+        <v>0.6170557</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -4985,19 +5043,21 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>0.6850908999999999</v>
+      </c>
       <c r="C21" t="n">
-        <v>0.014954</v>
+        <v>1.6879142</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.0020302</v>
+        <v>0.2291555</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0032037</v>
+        <v>0.3616145</v>
       </c>
       <c r="G21" t="n">
-        <v>0.009720100000000001</v>
+        <v>1.0971442</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -5009,19 +5069,21 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>1.1839562</v>
+      </c>
       <c r="C22" t="n">
-        <v>0.6370741</v>
+        <v>4.8129031</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.08649080000000001</v>
+        <v>0.6534118</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1364851</v>
+        <v>1.0311043</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4140981</v>
+        <v>3.128387</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -5033,19 +5095,21 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>24.1617104</v>
+      </c>
       <c r="C23" t="n">
-        <v>7.1333497</v>
+        <v>68.4785462</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.9684415</v>
+        <v>9.296819299999999</v>
       </c>
       <c r="F23" t="n">
-        <v>1.5282309</v>
+        <v>14.6706719</v>
       </c>
       <c r="G23" t="n">
-        <v>4.6366773</v>
+        <v>44.511055</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -5060,12 +5124,22 @@
       <c r="B24" t="n">
         <v>23.4636222</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>54.6406485</v>
+      </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>7.4181516</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11.7060754</v>
+      </c>
+      <c r="G24" t="n">
+        <v>35.5164215</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5074,22 +5148,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.1887142</v>
+        <v>19.694248</v>
       </c>
       <c r="C25" t="n">
-        <v>10.4495051</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
+        <v>16.4707614</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>1.418651</v>
+        <v>2.2361119</v>
       </c>
       <c r="F25" t="n">
-        <v>2.2386757</v>
+        <v>3.5286546</v>
       </c>
       <c r="G25" t="n">
-        <v>6.7921783</v>
+        <v>10.7059949</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -5101,19 +5173,21 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>6.4551637</v>
+      </c>
       <c r="C26" t="n">
-        <v>0.0152336</v>
+        <v>3.6505394</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.0020682</v>
+        <v>0.4956064</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0032636</v>
+        <v>0.7820824</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0099019</v>
+        <v>2.3728506</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -5181,22 +5255,24 @@
           <t>North Macedonia</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>0.0050995</v>
+      </c>
       <c r="C29" t="n">
-        <v>-0.0022486</v>
+        <v>0.0199243</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>-0.0003053</v>
+        <v>0.002705</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0004817</v>
+        <v>0.0042685</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0014616</v>
+        <v>0.0129508</v>
       </c>
       <c r="H29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5233,19 +5309,21 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>0.3399668</v>
+      </c>
       <c r="C31" t="n">
-        <v>0.165344</v>
+        <v>0.6164207</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.0224475</v>
+        <v>0.08368680000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0354229</v>
+        <v>0.1320604</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1074736</v>
+        <v>0.4006734</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -5301,19 +5379,21 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>0.08228630000000001</v>
+      </c>
       <c r="C34" t="n">
-        <v>-0.0242746</v>
+        <v>-0.2111502</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.0032956</v>
+        <v>-0.0286663</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0052005</v>
+        <v>-0.0452363</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0157785</v>
+        <v>-0.1372476</v>
       </c>
       <c r="H34" t="n">
         <v>-0</v>
@@ -5325,19 +5405,21 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>0.4280643</v>
+      </c>
       <c r="C35" t="n">
-        <v>0.0085659</v>
+        <v>0.2651854</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.0011629</v>
+        <v>0.0360022</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0018351</v>
+        <v>0.0568127</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0055678</v>
+        <v>0.1723705</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -7436,19 +7518,21 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>12.3839154</v>
+      </c>
       <c r="C2" t="n">
-        <v>60.3325166</v>
+        <v>66.53384579999999</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>2.6568157</v>
+        <v>3.4987237</v>
       </c>
       <c r="F2" t="n">
-        <v>4.8405999</v>
+        <v>6.1691571</v>
       </c>
       <c r="G2" t="n">
-        <v>8.420127300000001</v>
+        <v>12.4509913</v>
       </c>
       <c r="H2" t="n">
         <v>44.4149737</v>
@@ -7460,19 +7544,21 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>2.3020918</v>
+      </c>
       <c r="C3" t="n">
-        <v>5.2802511</v>
+        <v>7.5462938</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0.3539902</v>
+        <v>0.6616338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1526648</v>
+        <v>0.6381361</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1992911</v>
+        <v>1.6722188</v>
       </c>
       <c r="H3" t="n">
         <v>4.5743051</v>
@@ -7484,19 +7570,21 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>5.7043363</v>
+      </c>
       <c r="C4" t="n">
-        <v>31.9934521</v>
+        <v>37.9989046</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1.1312473</v>
+        <v>1.9465626</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5935198</v>
+        <v>2.8801129</v>
       </c>
       <c r="G4" t="n">
-        <v>4.9721682</v>
+        <v>8.875712399999999</v>
       </c>
       <c r="H4" t="n">
         <v>24.2965167</v>
@@ -7509,22 +7597,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5194711</v>
+        <v>1.4856908</v>
       </c>
       <c r="C5" t="n">
-        <v>3.9737223</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
+        <v>3.4905839</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2492765</v>
+        <v>0.1836844</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2721341</v>
+        <v>0.1686277</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8789703</v>
+        <v>0.5649303</v>
       </c>
       <c r="H5" t="n">
         <v>2.5733415</v>
@@ -7536,19 +7622,21 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>79.34370010000001</v>
+      </c>
       <c r="C6" t="n">
-        <v>277.3072702</v>
+        <v>314.0469573</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>11.7977319</v>
+        <v>16.785604</v>
       </c>
       <c r="F6" t="n">
-        <v>18.376431</v>
+        <v>26.2474493</v>
       </c>
       <c r="G6" t="n">
-        <v>45.0801287</v>
+        <v>68.9609253</v>
       </c>
       <c r="H6" t="n">
         <v>202.0529786</v>
@@ -7563,12 +7651,22 @@
       <c r="B7" t="n">
         <v>0.8215785</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>3.0442464</v>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.1093115</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0263104</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2065458</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.7020787</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7579,12 +7677,22 @@
       <c r="B8" t="n">
         <v>5.9602057</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>13.8998462</v>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.5842299</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2566977</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1909938</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11.8679249</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7595,12 +7703,22 @@
       <c r="B9" t="n">
         <v>28.9045907</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>85.0727284</v>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5785642</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.521403</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.4699897</v>
+      </c>
+      <c r="H9" t="n">
+        <v>60.5027715</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7611,12 +7729,22 @@
       <c r="B10" t="n">
         <v>32.7960241</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>112.2357994</v>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>6.3167092</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.1052859</v>
+      </c>
+      <c r="G10" t="n">
+        <v>23.6476437</v>
+      </c>
+      <c r="H10" t="n">
+        <v>72.1661606</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7624,19 +7752,21 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0.916753</v>
+      </c>
       <c r="C11" t="n">
-        <v>3.9875518</v>
+        <v>4.258178</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.1604827</v>
+        <v>0.1972236</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1446142</v>
+        <v>0.2025925</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1899263</v>
+        <v>0.3658334</v>
       </c>
       <c r="H11" t="n">
         <v>3.4925285</v>
@@ -7648,19 +7778,21 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>35.1435568</v>
+      </c>
       <c r="C12" t="n">
-        <v>116.0353644</v>
+        <v>120.7647884</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>5.5741547</v>
+        <v>6.2162332</v>
       </c>
       <c r="F12" t="n">
-        <v>7.0104169</v>
+        <v>8.0236368</v>
       </c>
       <c r="G12" t="n">
-        <v>20.4723575</v>
+        <v>23.5464832</v>
       </c>
       <c r="H12" t="n">
         <v>82.9784353</v>
@@ -7672,19 +7804,21 @@
           <t>Latvia</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0.4943123</v>
+      </c>
       <c r="C13" t="n">
-        <v>1.3560094</v>
+        <v>1.3472278</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0.0419381</v>
+        <v>0.0407459</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0288938</v>
+        <v>0.0270124</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1735857</v>
+        <v>0.1678777</v>
       </c>
       <c r="H13" t="n">
         <v>1.1115918</v>
@@ -7696,19 +7830,21 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>2.5516678</v>
+      </c>
       <c r="C14" t="n">
-        <v>3.6307838</v>
+        <v>3.6622113</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.1129631</v>
+        <v>0.1172298</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0889364</v>
+        <v>0.0956694</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4416131</v>
+        <v>0.462041</v>
       </c>
       <c r="H14" t="n">
         <v>2.9872711</v>
@@ -7720,19 +7856,21 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>3.1543616</v>
+      </c>
       <c r="C15" t="n">
-        <v>15.8552598</v>
+        <v>16.959397</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.7697772000000001</v>
+        <v>0.9196776</v>
       </c>
       <c r="F15" t="n">
-        <v>1.4349966</v>
+        <v>1.6715441</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1098891</v>
+        <v>2.8275782</v>
       </c>
       <c r="H15" t="n">
         <v>11.540597</v>
@@ -7744,19 +7882,21 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>14.5121537</v>
+      </c>
       <c r="C16" t="n">
-        <v>78.98786629999999</v>
+        <v>82.6566736</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>3.6882469</v>
+        <v>4.1863333</v>
       </c>
       <c r="F16" t="n">
-        <v>7.5340901</v>
+        <v>8.3200862</v>
       </c>
       <c r="G16" t="n">
-        <v>12.3332212</v>
+        <v>14.7179459</v>
       </c>
       <c r="H16" t="n">
         <v>55.4323082</v>
@@ -7769,22 +7909,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.1415254</v>
+        <v>10.5653163</v>
       </c>
       <c r="C17" t="n">
-        <v>58.3801209</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
+        <v>62.9316636</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>3.1500617</v>
+        <v>3.7679905</v>
       </c>
       <c r="F17" t="n">
-        <v>4.3900711</v>
+        <v>5.3651822</v>
       </c>
       <c r="G17" t="n">
-        <v>15.9191187</v>
+        <v>18.8776215</v>
       </c>
       <c r="H17" t="n">
         <v>34.9208694</v>
@@ -7796,19 +7934,21 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>12.6592355</v>
+      </c>
       <c r="C18" t="n">
-        <v>39.5957906</v>
+        <v>51.3836144</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>1.4345117</v>
+        <v>3.0348563</v>
       </c>
       <c r="F18" t="n">
-        <v>1.3579117</v>
+        <v>3.8833055</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2595879</v>
+        <v>8.9216734</v>
       </c>
       <c r="H18" t="n">
         <v>35.5437792</v>
@@ -7820,19 +7960,21 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>6.1567263</v>
+      </c>
       <c r="C19" t="n">
-        <v>15.8119096</v>
+        <v>24.3063215</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.7930776</v>
+        <v>1.9463003</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9876171</v>
+        <v>2.8074386</v>
       </c>
       <c r="G19" t="n">
-        <v>1.8372451</v>
+        <v>7.3586128</v>
       </c>
       <c r="H19" t="n">
         <v>12.1939699</v>
@@ -7845,22 +7987,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.9202688</v>
+        <v>7.1939678</v>
       </c>
       <c r="C20" t="n">
-        <v>16.5595288</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
+        <v>16.6936837</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.7360195</v>
+        <v>0.7542327</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8789254</v>
+        <v>0.9076664</v>
       </c>
       <c r="G20" t="n">
-        <v>2.2760561</v>
+        <v>2.3632568</v>
       </c>
       <c r="H20" t="n">
         <v>12.6685278</v>
@@ -7872,19 +8012,21 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>2.368295</v>
+      </c>
       <c r="C21" t="n">
-        <v>1.720513</v>
+        <v>3.3934732</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.0775397</v>
+        <v>0.304665</v>
       </c>
       <c r="F21" t="n">
-        <v>0.032729</v>
+        <v>0.3911398</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1343159</v>
+        <v>1.2217401</v>
       </c>
       <c r="H21" t="n">
         <v>1.4759283</v>
@@ -7896,19 +8038,21 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>6.5495747</v>
+      </c>
       <c r="C22" t="n">
-        <v>26.1576969</v>
+        <v>30.3335259</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.9054724</v>
+        <v>1.4723935</v>
       </c>
       <c r="F22" t="n">
-        <v>1.1097653</v>
+        <v>2.0043844</v>
       </c>
       <c r="G22" t="n">
-        <v>4.584703</v>
+        <v>7.2989919</v>
       </c>
       <c r="H22" t="n">
         <v>19.5577561</v>
@@ -7920,19 +8064,21 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>27.843328</v>
+      </c>
       <c r="C23" t="n">
-        <v>29.4940316</v>
+        <v>90.8392281</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>1.7907944</v>
+        <v>10.1191722</v>
       </c>
       <c r="F23" t="n">
-        <v>2.4626112</v>
+        <v>15.6050521</v>
       </c>
       <c r="G23" t="n">
-        <v>8.2978316</v>
+        <v>48.1722093</v>
       </c>
       <c r="H23" t="n">
         <v>16.9427944</v>
@@ -7947,12 +8093,22 @@
       <c r="B24" t="n">
         <v>29.52942</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>80.9968568</v>
+      </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>8.424507200000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12.8341374</v>
+      </c>
+      <c r="G24" t="n">
+        <v>39.7612655</v>
+      </c>
+      <c r="H24" t="n">
+        <v>19.9769467</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7961,22 +8117,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.0220812</v>
+        <v>32.527615</v>
       </c>
       <c r="C25" t="n">
-        <v>71.05710070000001</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
+        <v>77.0783569</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>3.3334324</v>
+        <v>4.1508933</v>
       </c>
       <c r="F25" t="n">
-        <v>4.1620826</v>
+        <v>5.4520615</v>
       </c>
       <c r="G25" t="n">
-        <v>15.982568</v>
+        <v>19.8963846</v>
       </c>
       <c r="H25" t="n">
         <v>47.5790176</v>
@@ -7988,19 +8142,21 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>30.8318984</v>
+      </c>
       <c r="C26" t="n">
-        <v>6.4485616</v>
+        <v>10.0838673</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.5293141</v>
+        <v>1.0228523</v>
       </c>
       <c r="F26" t="n">
-        <v>0.640459</v>
+        <v>1.4192778</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5673481</v>
+        <v>2.9302969</v>
       </c>
       <c r="H26" t="n">
         <v>4.7114403</v>
@@ -8068,19 +8224,21 @@
           <t>North Macedonia</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>0.2679165</v>
+      </c>
       <c r="C29" t="n">
-        <v>0.8877183</v>
+        <v>0.9098912</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.0306192</v>
+        <v>0.0336294</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0070548</v>
+        <v>0.0118051</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06307310000000001</v>
+        <v>0.0774854</v>
       </c>
       <c r="H29" t="n">
         <v>0.7869712</v>
@@ -8120,19 +8278,21 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1.3772429</v>
+      </c>
       <c r="C31" t="n">
-        <v>8.868335099999999</v>
+        <v>9.319411799999999</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.3622624</v>
+        <v>0.4235017</v>
       </c>
       <c r="F31" t="n">
-        <v>0.516953</v>
+        <v>0.6135906</v>
       </c>
       <c r="G31" t="n">
-        <v>1.2799575</v>
+        <v>1.5731574</v>
       </c>
       <c r="H31" t="n">
         <v>6.7091621</v>
@@ -8188,19 +8348,21 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>0.3672481</v>
+      </c>
       <c r="C34" t="n">
-        <v>2.3773736</v>
+        <v>2.190498</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>0.1287102</v>
+        <v>0.1033395</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2768385</v>
+        <v>0.2368027</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1993966</v>
+        <v>0.07792739999999999</v>
       </c>
       <c r="H34" t="n">
         <v>1.7724284</v>
@@ -8212,19 +8374,21 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>0.5534422</v>
+      </c>
       <c r="C35" t="n">
-        <v>0.776255</v>
+        <v>1.0328745</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.0314792</v>
+        <v>0.0663185</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0267821</v>
+        <v>0.0817596</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0380306</v>
+        <v>0.2048333</v>
       </c>
       <c r="H35" t="n">
         <v>0.6799631</v>
